--- a/VehiclesReport.xlsx
+++ b/VehiclesReport.xlsx
@@ -375,13 +375,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>companyName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>vehicleModel</v>
+      </c>
+      <c r="C1" t="str">
+        <v>plateNumber</v>
+      </c>
+      <c r="D1" t="str">
+        <v>enteredOnGate</v>
+      </c>
+      <c r="E1" t="str">
+        <v>approvedEnterFrom</v>
+      </c>
+      <c r="F1" t="str">
+        <v>entryEscortedBy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>exitedOnGate</v>
+      </c>
+      <c r="H1" t="str">
+        <v>approvedExitFrom</v>
+      </c>
+      <c r="I1" t="str">
+        <v>exitEscortedBy</v>
+      </c>
+      <c r="J1" t="str">
+        <v>numberOfDays</v>
+      </c>
+      <c r="K1" t="str">
+        <v>timeOnAirSide</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>МАКПЕТРОЛ А.Д.</v>
+      </c>
+      <c r="B2" t="str">
+        <v>sdfsdfsdf</v>
+      </c>
+      <c r="C2" t="str">
+        <v>sdfsdfsdf80</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Капија 5</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Лазо Врдинов</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Капија 5</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Рубинчо Врдинов</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="str">
+        <v>00:05:44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>МАКПЕТРОЛ А.Д.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>sdfsdfsdf</v>
+      </c>
+      <c r="C3" t="str">
+        <v>sdfsdfsdf80</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Службен 1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Viktor Nikolovski</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Рубинчо Негриоски</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" t="str">
+        <v>21:05:22</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>